--- a/Excel2JsonTool/Excel/Equipment.xlsx
+++ b/Excel2JsonTool/Excel/Equipment.xlsx
@@ -245,7 +245,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>物品1</t>
+    <t>物品100001</t>
   </si>
   <si>
     <t>4,5</t>
@@ -254,46 +254,46 @@
     <t>1,2,3,4,6,7,8,9</t>
   </si>
   <si>
-    <t>物品2</t>
-  </si>
-  <si>
-    <t>物品3</t>
-  </si>
-  <si>
-    <t>物品4</t>
-  </si>
-  <si>
-    <t>物品5</t>
-  </si>
-  <si>
-    <t>物品6</t>
-  </si>
-  <si>
-    <t>物品7</t>
-  </si>
-  <si>
-    <t>物品8</t>
-  </si>
-  <si>
-    <t>物品9</t>
-  </si>
-  <si>
-    <t>物品10</t>
-  </si>
-  <si>
-    <t>物品11</t>
-  </si>
-  <si>
-    <t>物品12</t>
-  </si>
-  <si>
-    <t>物品13</t>
-  </si>
-  <si>
-    <t>物品14</t>
-  </si>
-  <si>
-    <t>物品15</t>
+    <t>物品100002</t>
+  </si>
+  <si>
+    <t>物品100003</t>
+  </si>
+  <si>
+    <t>物品100004</t>
+  </si>
+  <si>
+    <t>物品100005</t>
+  </si>
+  <si>
+    <t>物品100006</t>
+  </si>
+  <si>
+    <t>物品100007</t>
+  </si>
+  <si>
+    <t>物品100008</t>
+  </si>
+  <si>
+    <t>物品100009</t>
+  </si>
+  <si>
+    <t>物品100010</t>
+  </si>
+  <si>
+    <t>物品100011</t>
+  </si>
+  <si>
+    <t>物品100012</t>
+  </si>
+  <si>
+    <t>物品100013</t>
+  </si>
+  <si>
+    <t>物品100014</t>
+  </si>
+  <si>
+    <t>物品100015</t>
   </si>
 </sst>
 </file>
@@ -301,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -324,7 +324,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,54 +383,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,19 +423,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,31 +479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +522,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,18 +611,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,73 +629,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,30 +670,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,26 +693,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,6 +726,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -778,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,130 +793,130 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,7 +1281,7 @@
   <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:38">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>63</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:38">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>66</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:38">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>100003</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>67</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:38">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>100004</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>68</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:38">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>100005</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>69</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:38">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>100006</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>70</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:38">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>100007</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>71</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:38">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>100008</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>72</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:38">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>100009</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>73</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:38">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>100010</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>74</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:38">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>100011</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>75</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:38">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>100012</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>76</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:38">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>100013</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>77</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="1:38">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>100014</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>78</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:38">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>100015</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>79</v>

--- a/Excel2JsonTool/Excel/Equipment.xlsx
+++ b/Excel2JsonTool/Excel/Equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24195" windowHeight="12540"/>
+    <workbookView windowWidth="15225" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zhangyuge</author>
+    <author>admin</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -49,6 +50,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1头
+2胸
+3腰
+4腿
+5足
+6项链
+7戒指1
+8戒指2
+9武器</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -185,7 +216,7 @@
     <t>套装Id,0表示非套装</t>
   </si>
   <si>
-    <t>位置0-7</t>
+    <t>位置1-9</t>
   </si>
   <si>
     <t>固定属性--这个应该放在品质表里</t>
@@ -302,9 +333,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1281,7 +1312,7 @@
   <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1671,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>64</v>
@@ -1787,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>64</v>
@@ -1903,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>64</v>
@@ -2019,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>64</v>
@@ -2135,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>64</v>
@@ -2251,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>64</v>
@@ -2367,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>64</v>
@@ -2483,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>64</v>
@@ -2599,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>64</v>
@@ -2715,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>64</v>
@@ -2831,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>64</v>
@@ -2947,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>64</v>
@@ -3063,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>64</v>
@@ -3179,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>64</v>
@@ -3295,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>64</v>
